--- a/04-114年-桃園區中隊-廢傢俱/桃園區中隊-廢傢俱-彈簧床-6月.xlsx
+++ b/04-114年-桃園區中隊-廢傢俱/桃園區中隊-廢傢俱-彈簧床-6月.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE2157A-FFDD-4C93-8431-AD807BFFBA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="114年6月" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'114年6月'!$A$39:$W$39</definedName>
     <definedName name="回收型別">定義!$E$5:$E$7</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -166,12 +167,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -310,7 +311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -335,16 +336,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -353,22 +348,22 @@
     <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,10 +402,10 @@
     <xf numFmtId="176" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -422,13 +417,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -466,7 +469,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -500,6 +503,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -534,9 +538,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -709,77 +714,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="10.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="4" customWidth="1"/>
     <col min="7" max="8" width="9" style="4"/>
     <col min="9" max="9" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="4" customWidth="1"/>
     <col min="11" max="11" width="9" style="4"/>
-    <col min="12" max="12" width="12.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="4" customWidth="1"/>
-    <col min="14" max="14" width="12.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="12.875" style="4" customWidth="1"/>
-    <col min="20" max="20" width="12.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.875" style="4" customWidth="1"/>
-    <col min="22" max="22" width="12.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="12.88671875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.88671875" style="4" customWidth="1"/>
+    <col min="22" max="22" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+    </row>
+    <row r="2" spans="1:23" ht="44.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -806,7 +811,7 @@
       <c r="K2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="14" t="s">
         <v>26</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -843,14 +848,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="10">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>45809</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12">
         <f t="shared" ref="C3:C37" si="0">SUM(D3:W3)</f>
         <v>0</v>
       </c>
@@ -875,414 +880,414 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <f>SUM(C3:C3)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <f>SUM(D3)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <f t="shared" ref="E4:W4" si="1">SUM(E3)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W4" s="13">
+      <c r="W4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="8" customFormat="1">
-      <c r="A5" s="10">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>45810</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11">
-        <v>3</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
         <v>6</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11">
-        <v>5</v>
-      </c>
-      <c r="J5" s="11" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11">
-        <v>4</v>
-      </c>
-      <c r="M5" s="11">
-        <v>5</v>
-      </c>
-      <c r="N5" s="11">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5">
+        <v>4</v>
+      </c>
+      <c r="M5" s="5">
+        <v>5</v>
+      </c>
+      <c r="N5" s="5">
         <v>1</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="11">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="5">
         <v>1</v>
       </c>
-      <c r="R5" s="11">
-        <v>4</v>
-      </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11">
-        <v>5</v>
-      </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-    </row>
-    <row r="6" spans="1:23" s="23" customFormat="1">
-      <c r="A6" s="20">
+      <c r="R5" s="5">
+        <v>4</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5">
+        <v>5</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+    </row>
+    <row r="6" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
         <v>45811</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20">
         <v>7</v>
       </c>
-      <c r="F6" s="22">
-        <v>3</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22">
-        <v>5</v>
-      </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22">
+      <c r="F6" s="20">
+        <v>3</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20">
+        <v>5</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20">
         <v>10</v>
       </c>
-      <c r="M6" s="22">
-        <v>3</v>
-      </c>
-      <c r="N6" s="22">
+      <c r="M6" s="20">
+        <v>3</v>
+      </c>
+      <c r="N6" s="20">
         <v>7</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="20">
         <v>2</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="20">
         <v>7</v>
       </c>
-      <c r="Q6" s="22">
-        <v>3</v>
-      </c>
-      <c r="R6" s="22">
+      <c r="Q6" s="20">
+        <v>3</v>
+      </c>
+      <c r="R6" s="20">
         <v>9</v>
       </c>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22">
-        <v>5</v>
-      </c>
-      <c r="U6" s="22">
-        <v>5</v>
-      </c>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-    </row>
-    <row r="7" spans="1:23" s="8" customFormat="1">
-      <c r="A7" s="10">
+      <c r="S6" s="20"/>
+      <c r="T6" s="20">
+        <v>5</v>
+      </c>
+      <c r="U6" s="20">
+        <v>5</v>
+      </c>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>45812</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11">
-        <v>3</v>
-      </c>
-      <c r="J7" s="11">
-        <v>5</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11">
-        <v>5</v>
-      </c>
-      <c r="M7" s="11">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5">
+        <v>3</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
+        <v>5</v>
+      </c>
+      <c r="M7" s="5">
         <v>8</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="5">
         <v>2</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>5</v>
-      </c>
-      <c r="R7" s="11">
-        <v>4</v>
-      </c>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11">
-        <v>4</v>
-      </c>
-      <c r="U7" s="11">
-        <v>5</v>
-      </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-    </row>
-    <row r="8" spans="1:23" s="8" customFormat="1">
-      <c r="A8" s="10">
+      <c r="O7" s="5"/>
+      <c r="P7" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>5</v>
+      </c>
+      <c r="R7" s="5">
+        <v>4</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5">
+        <v>4</v>
+      </c>
+      <c r="U7" s="5">
+        <v>5</v>
+      </c>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>45813</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
         <v>2</v>
       </c>
-      <c r="J8" s="11">
-        <v>5</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11">
+      <c r="J8" s="5">
+        <v>5</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
         <v>1</v>
       </c>
-      <c r="M8" s="11">
-        <v>3</v>
-      </c>
-      <c r="N8" s="11">
-        <v>3</v>
-      </c>
-      <c r="O8" s="11">
-        <v>3</v>
-      </c>
-      <c r="P8" s="11">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>3</v>
-      </c>
-      <c r="R8" s="11">
-        <v>5</v>
-      </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11">
-        <v>3</v>
-      </c>
-      <c r="U8" s="11">
-        <v>3</v>
-      </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-    </row>
-    <row r="9" spans="1:23" s="8" customFormat="1">
-      <c r="A9" s="10">
+      <c r="M8" s="5">
+        <v>3</v>
+      </c>
+      <c r="N8" s="5">
+        <v>3</v>
+      </c>
+      <c r="O8" s="5">
+        <v>3</v>
+      </c>
+      <c r="P8" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>3</v>
+      </c>
+      <c r="R8" s="5">
+        <v>5</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5">
+        <v>3</v>
+      </c>
+      <c r="U8" s="5">
+        <v>3</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>45814</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
-        <v>4</v>
-      </c>
-      <c r="I9" s="11">
-        <v>4</v>
-      </c>
-      <c r="J9" s="11">
-        <v>5</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11">
-        <v>3</v>
-      </c>
-      <c r="M9" s="11">
-        <v>3</v>
-      </c>
-      <c r="N9" s="11">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
+        <v>4</v>
+      </c>
+      <c r="I9" s="5">
+        <v>4</v>
+      </c>
+      <c r="J9" s="5">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5">
+        <v>3</v>
+      </c>
+      <c r="M9" s="5">
+        <v>3</v>
+      </c>
+      <c r="N9" s="5">
         <v>2</v>
       </c>
-      <c r="O9" s="11">
-        <v>3</v>
-      </c>
-      <c r="P9" s="11">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11">
-        <v>3</v>
-      </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11">
+      <c r="O9" s="5">
+        <v>3</v>
+      </c>
+      <c r="P9" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5">
+        <v>3</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5">
         <v>2</v>
       </c>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11">
+      <c r="U9" s="5"/>
+      <c r="V9" s="5">
         <v>1</v>
       </c>
-      <c r="W9" s="11"/>
-    </row>
-    <row r="10" spans="1:23" s="27" customFormat="1">
-      <c r="A10" s="24">
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
         <v>45815</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="25">
+      <c r="B10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24">
         <v>1</v>
       </c>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="10">
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>45816</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1307,858 +1312,858 @@
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <f>SUM(C5:C11)</f>
         <v>218</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <f t="shared" ref="D12:W12" si="2">SUM(D5:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="11">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="11">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="11">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="11">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="11">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="11">
         <f>SUM(L5:L11)</f>
         <v>23</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="11">
         <f>SUM(M5:M11)</f>
         <v>22</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="11">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="11">
         <f>SUM(O5:O11)</f>
         <v>8</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="11">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="11">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="R12" s="13">
+      <c r="R12" s="11">
         <f>SUM(R5:R11)</f>
         <v>25</v>
       </c>
-      <c r="S12" s="13">
+      <c r="S12" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T12" s="13">
+      <c r="T12" s="11">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="11">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="V12" s="13">
+      <c r="V12" s="11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="W12" s="13">
+      <c r="W12" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="18" customFormat="1">
-      <c r="A13" s="10">
+    <row r="13" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>45817</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="12">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13">
         <v>9</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <v>6</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15">
-        <v>5</v>
-      </c>
-      <c r="I13" s="15">
-        <v>5</v>
-      </c>
-      <c r="J13" s="15">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13">
+        <v>5</v>
+      </c>
+      <c r="I13" s="13">
+        <v>5</v>
+      </c>
+      <c r="J13" s="13">
         <v>6</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15">
+      <c r="K13" s="13"/>
+      <c r="L13" s="13">
         <v>7</v>
       </c>
-      <c r="M13" s="15">
-        <v>5</v>
-      </c>
-      <c r="N13" s="15">
+      <c r="M13" s="13">
+        <v>5</v>
+      </c>
+      <c r="N13" s="13">
         <v>1</v>
       </c>
-      <c r="O13" s="15">
-        <v>5</v>
-      </c>
-      <c r="P13" s="15">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="15">
+      <c r="O13" s="13">
+        <v>5</v>
+      </c>
+      <c r="P13" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="13">
         <v>7</v>
       </c>
-      <c r="R13" s="15">
-        <v>4</v>
-      </c>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15">
+      <c r="R13" s="13">
+        <v>4</v>
+      </c>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13">
         <v>7</v>
       </c>
-      <c r="U13" s="15">
-        <v>5</v>
-      </c>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-    </row>
-    <row r="14" spans="1:23" s="23" customFormat="1">
-      <c r="A14" s="20">
+      <c r="U13" s="13">
+        <v>5</v>
+      </c>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+    </row>
+    <row r="14" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
         <v>45818</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="19">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22">
-        <v>5</v>
-      </c>
-      <c r="F14" s="22">
-        <v>4</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20">
+        <v>5</v>
+      </c>
+      <c r="F14" s="20">
+        <v>4</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20">
         <v>6</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="20">
         <v>8</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="20">
         <v>6</v>
       </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22">
-        <v>4</v>
-      </c>
-      <c r="M14" s="22">
-        <v>5</v>
-      </c>
-      <c r="N14" s="22">
+      <c r="K14" s="20"/>
+      <c r="L14" s="20">
+        <v>4</v>
+      </c>
+      <c r="M14" s="20">
+        <v>5</v>
+      </c>
+      <c r="N14" s="20">
         <v>1</v>
       </c>
-      <c r="O14" s="22">
-        <v>3</v>
-      </c>
-      <c r="P14" s="22">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22">
-        <v>3</v>
-      </c>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22">
-        <v>3</v>
-      </c>
-      <c r="U14" s="22">
-        <v>5</v>
-      </c>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-    </row>
-    <row r="15" spans="1:23" s="8" customFormat="1">
-      <c r="A15" s="10">
+      <c r="O14" s="20">
+        <v>3</v>
+      </c>
+      <c r="P14" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20">
+        <v>3</v>
+      </c>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20">
+        <v>3</v>
+      </c>
+      <c r="U14" s="20">
+        <v>5</v>
+      </c>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>45819</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11">
-        <v>5</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
         <v>6</v>
       </c>
-      <c r="I15" s="11">
-        <v>3</v>
-      </c>
-      <c r="J15" s="11">
-        <v>5</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11">
-        <v>4</v>
-      </c>
-      <c r="M15" s="11">
-        <v>3</v>
-      </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11">
+      <c r="I15" s="5">
+        <v>3</v>
+      </c>
+      <c r="J15" s="5">
+        <v>5</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5">
+        <v>4</v>
+      </c>
+      <c r="M15" s="5">
+        <v>3</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5">
         <v>1</v>
       </c>
-      <c r="P15" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="11">
+      <c r="P15" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="5">
         <v>2</v>
       </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11">
-        <v>4</v>
-      </c>
-      <c r="U15" s="11">
-        <v>5</v>
-      </c>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-    </row>
-    <row r="16" spans="1:23" s="18" customFormat="1">
-      <c r="A16" s="17">
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5">
+        <v>4</v>
+      </c>
+      <c r="U15" s="5">
+        <v>5</v>
+      </c>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
         <v>45820</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D16" s="15">
-        <v>3</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15">
+      <c r="D16" s="13">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13">
         <v>2</v>
       </c>
-      <c r="I16" s="15">
-        <v>4</v>
-      </c>
-      <c r="J16" s="15">
-        <v>5</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15">
-        <v>3</v>
-      </c>
-      <c r="M16" s="15">
-        <v>5</v>
-      </c>
-      <c r="N16" s="15">
+      <c r="I16" s="13">
+        <v>4</v>
+      </c>
+      <c r="J16" s="13">
+        <v>5</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13">
+        <v>3</v>
+      </c>
+      <c r="M16" s="13">
+        <v>5</v>
+      </c>
+      <c r="N16" s="13">
         <v>2</v>
       </c>
-      <c r="O16" s="15">
-        <v>4</v>
-      </c>
-      <c r="P16" s="15">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15">
-        <v>5</v>
-      </c>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15">
-        <v>4</v>
-      </c>
-      <c r="U16" s="15">
+      <c r="O16" s="13">
+        <v>4</v>
+      </c>
+      <c r="P16" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13">
+        <v>5</v>
+      </c>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13">
+        <v>4</v>
+      </c>
+      <c r="U16" s="13">
         <v>1</v>
       </c>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-    </row>
-    <row r="17" spans="1:27" s="8" customFormat="1">
-      <c r="A17" s="10">
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>45821</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
         <v>1</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5">
         <v>7</v>
       </c>
-      <c r="I17" s="11">
-        <v>3</v>
-      </c>
-      <c r="J17" s="11">
-        <v>3</v>
-      </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11">
-        <v>5</v>
-      </c>
-      <c r="M17" s="11">
-        <v>3</v>
-      </c>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11">
+      <c r="I17" s="5">
+        <v>3</v>
+      </c>
+      <c r="J17" s="5">
+        <v>3</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
+        <v>5</v>
+      </c>
+      <c r="M17" s="5">
+        <v>3</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5">
         <v>2</v>
       </c>
-      <c r="Q17" s="11">
-        <v>4</v>
-      </c>
-      <c r="R17" s="11">
-        <v>3</v>
-      </c>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11">
+      <c r="Q17" s="5">
+        <v>4</v>
+      </c>
+      <c r="R17" s="5">
+        <v>3</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5">
         <v>1</v>
       </c>
-      <c r="U17" s="11">
+      <c r="U17" s="5">
         <v>2</v>
       </c>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-    </row>
-    <row r="18" spans="1:27" s="8" customFormat="1">
-      <c r="A18" s="10">
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>45822</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="14">
+      <c r="B18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11">
-        <v>3</v>
-      </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11">
-        <v>3</v>
-      </c>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-    </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="10">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5">
+        <v>3</v>
+      </c>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5">
+        <v>3</v>
+      </c>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>45823</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="B19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <f>SUM(C13:C19)</f>
         <v>256</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="11">
         <f t="shared" ref="D20:W20" si="3">SUM(D13:D19)</f>
         <v>3</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="11">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="11">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="11">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="11">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="11">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="11">
         <f>SUM(L13:L19)</f>
         <v>23</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="11">
         <f>SUM(M13:M19)</f>
         <v>21</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="11">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="11">
         <f>SUM(O13:O19)</f>
         <v>13</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="11">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="11">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="R20" s="13">
+      <c r="R20" s="11">
         <f>SUM(R13:R19)</f>
         <v>15</v>
       </c>
-      <c r="S20" s="13">
+      <c r="S20" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T20" s="13">
+      <c r="T20" s="11">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="U20" s="13">
+      <c r="U20" s="11">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="V20" s="13">
+      <c r="V20" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W20" s="13">
+      <c r="W20" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="18" customFormat="1">
-      <c r="A21" s="10">
+    <row r="21" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>45824</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="19">
+      <c r="B21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="17">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="D21" s="15">
-        <v>4</v>
-      </c>
-      <c r="E21" s="15">
-        <v>3</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15">
+      <c r="D21" s="13">
+        <v>4</v>
+      </c>
+      <c r="E21" s="13">
+        <v>3</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13">
         <v>16</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="13">
         <v>6</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15">
-        <v>5</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15">
+      <c r="I21" s="13"/>
+      <c r="J21" s="13">
+        <v>5</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13">
         <v>8</v>
       </c>
-      <c r="M21" s="15">
-        <v>5</v>
-      </c>
-      <c r="N21" s="15">
-        <v>4</v>
-      </c>
-      <c r="O21" s="15">
-        <v>4</v>
-      </c>
-      <c r="P21" s="15">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="15">
-        <v>4</v>
-      </c>
-      <c r="R21" s="15">
-        <v>4</v>
-      </c>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15">
+      <c r="M21" s="13">
+        <v>5</v>
+      </c>
+      <c r="N21" s="13">
+        <v>4</v>
+      </c>
+      <c r="O21" s="13">
+        <v>4</v>
+      </c>
+      <c r="P21" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>4</v>
+      </c>
+      <c r="R21" s="13">
+        <v>4</v>
+      </c>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13">
         <v>7</v>
       </c>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="32" t="s">
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-    </row>
-    <row r="22" spans="1:27" s="23" customFormat="1">
-      <c r="A22" s="20">
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
+    </row>
+    <row r="22" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
         <v>45825</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="19">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="D22" s="22">
-        <v>5</v>
-      </c>
-      <c r="E22" s="22">
+      <c r="D22" s="20">
+        <v>5</v>
+      </c>
+      <c r="E22" s="20">
         <v>2</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22">
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20">
         <v>6</v>
       </c>
-      <c r="I22" s="22">
-        <v>4</v>
-      </c>
-      <c r="J22" s="22">
-        <v>5</v>
-      </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22">
+      <c r="I22" s="20">
+        <v>4</v>
+      </c>
+      <c r="J22" s="20">
+        <v>5</v>
+      </c>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20">
         <v>12</v>
       </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22">
-        <v>4</v>
-      </c>
-      <c r="P22" s="22">
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20">
+        <v>4</v>
+      </c>
+      <c r="P22" s="20">
         <v>7</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="Q22" s="20">
         <v>10</v>
       </c>
-      <c r="R22" s="22">
-        <v>5</v>
-      </c>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22">
-        <v>4</v>
-      </c>
-      <c r="U22" s="22">
-        <v>5</v>
-      </c>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-    </row>
-    <row r="23" spans="1:27" s="23" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A23" s="20">
+      <c r="R22" s="20">
+        <v>5</v>
+      </c>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20">
+        <v>4</v>
+      </c>
+      <c r="U22" s="20">
+        <v>5</v>
+      </c>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+    </row>
+    <row r="23" spans="1:27" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
         <v>45826</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="19">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22">
-        <v>5</v>
-      </c>
-      <c r="F23" s="22">
-        <v>4</v>
-      </c>
-      <c r="G23" s="22">
-        <v>3</v>
-      </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22">
-        <v>3</v>
-      </c>
-      <c r="J23" s="22">
-        <v>5</v>
-      </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22">
-        <v>5</v>
-      </c>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22">
-        <v>4</v>
-      </c>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20">
+        <v>5</v>
+      </c>
+      <c r="F23" s="20">
+        <v>4</v>
+      </c>
+      <c r="G23" s="20">
+        <v>3</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20">
+        <v>3</v>
+      </c>
+      <c r="J23" s="20">
+        <v>5</v>
+      </c>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20">
+        <v>5</v>
+      </c>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20">
+        <v>4</v>
+      </c>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20">
         <v>2</v>
       </c>
-      <c r="Q23" s="22">
-        <v>3</v>
-      </c>
-      <c r="R23" s="22">
-        <v>4</v>
-      </c>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22">
-        <v>4</v>
-      </c>
-      <c r="U23" s="22">
-        <v>3</v>
-      </c>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-    </row>
-    <row r="24" spans="1:27" s="8" customFormat="1">
-      <c r="A24" s="10">
+      <c r="Q23" s="20">
+        <v>3</v>
+      </c>
+      <c r="R23" s="20">
+        <v>4</v>
+      </c>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20">
+        <v>4</v>
+      </c>
+      <c r="U23" s="20">
+        <v>3</v>
+      </c>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <v>45827</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11">
-        <v>3</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5">
+        <v>3</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5">
         <v>2</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11">
-        <v>5</v>
-      </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5">
+        <v>5</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5">
         <v>2</v>
       </c>
-      <c r="P24" s="11">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="11">
-        <v>3</v>
-      </c>
-      <c r="R24" s="11">
+      <c r="P24" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>3</v>
+      </c>
+      <c r="R24" s="5">
         <v>2</v>
       </c>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11">
-        <v>4</v>
-      </c>
-      <c r="U24" s="11">
-        <v>5</v>
-      </c>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-    </row>
-    <row r="25" spans="1:27" s="8" customFormat="1">
-      <c r="A25" s="10">
+      <c r="S24" s="5"/>
+      <c r="T24" s="5">
+        <v>4</v>
+      </c>
+      <c r="U24" s="5">
+        <v>5</v>
+      </c>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
         <v>45828</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="12">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
         <v>1</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11">
-        <v>3</v>
-      </c>
-      <c r="I25" s="11">
-        <v>4</v>
-      </c>
-      <c r="J25" s="11">
-        <v>5</v>
-      </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5">
+        <v>3</v>
+      </c>
+      <c r="I25" s="5">
+        <v>4</v>
+      </c>
+      <c r="J25" s="5">
+        <v>5</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5">
         <v>10</v>
       </c>
-      <c r="M25" s="11">
-        <v>3</v>
-      </c>
-      <c r="N25" s="11">
-        <v>4</v>
-      </c>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11">
-        <v>5</v>
-      </c>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11">
-        <v>4</v>
-      </c>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11">
-        <v>3</v>
-      </c>
-      <c r="U25" s="11">
-        <v>3</v>
-      </c>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-    </row>
-    <row r="26" spans="1:27" s="23" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A26" s="20">
+      <c r="M25" s="5">
+        <v>3</v>
+      </c>
+      <c r="N25" s="5">
+        <v>4</v>
+      </c>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5">
+        <v>4</v>
+      </c>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5">
+        <v>3</v>
+      </c>
+      <c r="U25" s="5">
+        <v>3</v>
+      </c>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+    </row>
+    <row r="26" spans="1:27" s="21" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
         <v>45829</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="21">
+      <c r="B26" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22">
-        <v>5</v>
-      </c>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-    </row>
-    <row r="27" spans="1:27">
-      <c r="A27" s="10">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20">
+        <v>5</v>
+      </c>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
         <v>45830</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="14">
+      <c r="B27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2183,772 +2188,772 @@
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="13">
+      <c r="C28" s="11">
         <f>SUM(C21:C27)</f>
         <v>267</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="11">
         <f t="shared" ref="D28:W28" si="4">SUM(D21:D27)</f>
         <v>9</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="11">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="11">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="11">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="11">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="11">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="11">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="11">
         <f>SUM(L21:L27)</f>
         <v>35</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="11">
         <f>SUM(M21:M27)</f>
         <v>8</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="11">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="11">
         <f>SUM(O21:O27)</f>
         <v>10</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="11">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="11">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="R28" s="13">
+      <c r="R28" s="11">
         <f>SUM(R21:R27)</f>
         <v>19</v>
       </c>
-      <c r="S28" s="13">
+      <c r="S28" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T28" s="13">
+      <c r="T28" s="11">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="U28" s="13">
+      <c r="U28" s="11">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="V28" s="13">
+      <c r="V28" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W28" s="13">
+      <c r="W28" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="8" customFormat="1">
-      <c r="A29" s="10">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
         <v>45831</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="14">
+      <c r="B29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="12">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11">
-        <v>5</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11">
-        <v>4</v>
-      </c>
-      <c r="H29" s="11">
-        <v>5</v>
-      </c>
-      <c r="I29" s="11">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5">
+        <v>5</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5">
+        <v>4</v>
+      </c>
+      <c r="H29" s="5">
+        <v>5</v>
+      </c>
+      <c r="I29" s="5">
         <v>7</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="5">
         <v>7</v>
       </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11">
-        <v>4</v>
-      </c>
-      <c r="M29" s="11">
+      <c r="K29" s="5"/>
+      <c r="L29" s="5">
+        <v>4</v>
+      </c>
+      <c r="M29" s="5">
         <v>9</v>
       </c>
-      <c r="N29" s="11">
-        <v>3</v>
-      </c>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11">
+      <c r="N29" s="5">
+        <v>3</v>
+      </c>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5">
         <v>8</v>
       </c>
-      <c r="Q29" s="11">
-        <v>3</v>
-      </c>
-      <c r="R29" s="11">
+      <c r="Q29" s="5">
+        <v>3</v>
+      </c>
+      <c r="R29" s="5">
         <v>8</v>
       </c>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11">
-        <v>5</v>
-      </c>
-      <c r="U29" s="11">
+      <c r="S29" s="5"/>
+      <c r="T29" s="5">
+        <v>5</v>
+      </c>
+      <c r="U29" s="5">
         <v>2</v>
       </c>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-    </row>
-    <row r="30" spans="1:27" s="18" customFormat="1">
-      <c r="A30" s="17">
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+    </row>
+    <row r="30" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15">
         <v>45832</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="17">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="13">
         <v>8</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="13">
         <v>1</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15">
-        <v>4</v>
-      </c>
-      <c r="I30" s="15">
-        <v>3</v>
-      </c>
-      <c r="J30" s="15">
-        <v>5</v>
-      </c>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15">
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13">
+        <v>4</v>
+      </c>
+      <c r="I30" s="13">
+        <v>3</v>
+      </c>
+      <c r="J30" s="13">
+        <v>5</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13">
         <v>9</v>
       </c>
-      <c r="M30" s="15">
-        <v>5</v>
-      </c>
-      <c r="N30" s="15">
-        <v>4</v>
-      </c>
-      <c r="O30" s="15">
+      <c r="M30" s="13">
+        <v>5</v>
+      </c>
+      <c r="N30" s="13">
+        <v>4</v>
+      </c>
+      <c r="O30" s="13">
         <v>2</v>
       </c>
-      <c r="P30" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15">
+      <c r="P30" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13">
         <v>2</v>
       </c>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15">
-        <v>4</v>
-      </c>
-      <c r="U30" s="15">
-        <v>3</v>
-      </c>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-    </row>
-    <row r="31" spans="1:27" s="23" customFormat="1">
-      <c r="A31" s="20">
+      <c r="S30" s="13"/>
+      <c r="T30" s="13">
+        <v>4</v>
+      </c>
+      <c r="U30" s="13">
+        <v>3</v>
+      </c>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18">
         <v>45833</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="19">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="D31" s="22">
-        <v>3</v>
-      </c>
-      <c r="E31" s="22">
+      <c r="D31" s="20">
+        <v>3</v>
+      </c>
+      <c r="E31" s="20">
         <v>2</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22">
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20">
         <v>1</v>
       </c>
-      <c r="I31" s="22">
-        <v>4</v>
-      </c>
-      <c r="J31" s="22">
-        <v>3</v>
-      </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22">
+      <c r="I31" s="20">
+        <v>4</v>
+      </c>
+      <c r="J31" s="20">
+        <v>3</v>
+      </c>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20">
         <v>6</v>
       </c>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22">
+      <c r="M31" s="20"/>
+      <c r="N31" s="20">
         <v>6</v>
       </c>
-      <c r="O31" s="22">
-        <v>3</v>
-      </c>
-      <c r="P31" s="22">
-        <v>5</v>
-      </c>
-      <c r="Q31" s="22">
+      <c r="O31" s="20">
+        <v>3</v>
+      </c>
+      <c r="P31" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="20">
         <v>6</v>
       </c>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22">
-        <v>4</v>
-      </c>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-    </row>
-    <row r="32" spans="1:27" s="23" customFormat="1">
-      <c r="A32" s="20">
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20">
+        <v>4</v>
+      </c>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+    </row>
+    <row r="32" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18">
         <v>45834</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="19">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="20">
         <v>6</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22">
+      <c r="E32" s="20"/>
+      <c r="F32" s="20">
         <v>1</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22">
+      <c r="G32" s="20"/>
+      <c r="H32" s="20">
         <v>6</v>
       </c>
-      <c r="I32" s="22">
-        <v>3</v>
-      </c>
-      <c r="J32" s="22">
-        <v>3</v>
-      </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22">
-        <v>5</v>
-      </c>
-      <c r="M32" s="22">
-        <v>5</v>
-      </c>
-      <c r="N32" s="22">
+      <c r="I32" s="20">
+        <v>3</v>
+      </c>
+      <c r="J32" s="20">
+        <v>3</v>
+      </c>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20">
+        <v>5</v>
+      </c>
+      <c r="M32" s="20">
+        <v>5</v>
+      </c>
+      <c r="N32" s="20">
         <v>2</v>
       </c>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22">
+      <c r="O32" s="20"/>
+      <c r="P32" s="20">
         <v>7</v>
       </c>
-      <c r="Q32" s="22">
+      <c r="Q32" s="20">
         <v>2</v>
       </c>
-      <c r="R32" s="22">
+      <c r="R32" s="20">
         <v>2</v>
       </c>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22">
-        <v>3</v>
-      </c>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-    </row>
-    <row r="33" spans="1:23" s="8" customFormat="1">
-      <c r="A33" s="10">
+      <c r="S32" s="20"/>
+      <c r="T32" s="20">
+        <v>3</v>
+      </c>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
         <v>45835</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="12">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11">
-        <v>4</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11">
-        <v>4</v>
-      </c>
-      <c r="I33" s="11">
-        <v>4</v>
-      </c>
-      <c r="J33" s="11">
-        <v>5</v>
-      </c>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5">
+        <v>4</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5">
+        <v>4</v>
+      </c>
+      <c r="I33" s="5">
+        <v>4</v>
+      </c>
+      <c r="J33" s="5">
+        <v>5</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5">
         <v>2</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M33" s="5">
         <v>2</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N33" s="5">
         <v>1</v>
       </c>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11">
+      <c r="O33" s="5"/>
+      <c r="P33" s="5">
         <v>6</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="Q33" s="5">
         <v>1</v>
       </c>
-      <c r="R33" s="11">
-        <v>4</v>
-      </c>
-      <c r="S33" s="11">
-        <v>5</v>
-      </c>
-      <c r="T33" s="11">
+      <c r="R33" s="5">
+        <v>4</v>
+      </c>
+      <c r="S33" s="5">
+        <v>5</v>
+      </c>
+      <c r="T33" s="5">
         <v>6</v>
       </c>
-      <c r="U33" s="11">
-        <v>3</v>
-      </c>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-    </row>
-    <row r="34" spans="1:23" s="8" customFormat="1">
-      <c r="A34" s="10">
+      <c r="U33" s="5">
+        <v>3</v>
+      </c>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
         <v>45836</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="14">
+      <c r="B34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11">
-        <v>3</v>
-      </c>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-    </row>
-    <row r="35" spans="1:23" s="8" customFormat="1">
-      <c r="A35" s="10">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5">
+        <v>3</v>
+      </c>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
         <v>45837</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="14">
+      <c r="B35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="13">
+      <c r="C36" s="11">
         <f>SUM(C29:C35)</f>
         <v>262</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="11">
         <f t="shared" ref="D36:W36" si="5">SUM(D29:D35)</f>
         <v>17</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="11">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="11">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="11">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="11">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="11">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="11">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="11">
         <f>SUM(L29:L35)</f>
         <v>26</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="11">
         <f>SUM(M29:M35)</f>
         <v>21</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="11">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O36" s="11">
         <f>SUM(O29:O35)</f>
         <v>5</v>
       </c>
-      <c r="P36" s="13">
+      <c r="P36" s="11">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="Q36" s="13">
+      <c r="Q36" s="11">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="R36" s="13">
+      <c r="R36" s="11">
         <f>SUM(R29:R35)</f>
         <v>16</v>
       </c>
-      <c r="S36" s="13">
+      <c r="S36" s="11">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="T36" s="13">
+      <c r="T36" s="11">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="U36" s="13">
+      <c r="U36" s="11">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="V36" s="13">
+      <c r="V36" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W36" s="13">
+      <c r="W36" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="30" customFormat="1">
-      <c r="A37" s="28">
+    <row r="37" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="26">
         <v>45838</v>
       </c>
-      <c r="B37" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="29">
+      <c r="B37" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="27">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="27">
         <v>6</v>
       </c>
-      <c r="E37" s="29">
-        <v>3</v>
-      </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29">
-        <v>3</v>
-      </c>
-      <c r="I37" s="29">
+      <c r="E37" s="27">
+        <v>3</v>
+      </c>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27">
+        <v>3</v>
+      </c>
+      <c r="I37" s="27">
         <v>6</v>
       </c>
-      <c r="J37" s="29">
-        <v>5</v>
-      </c>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29">
+      <c r="J37" s="27">
+        <v>5</v>
+      </c>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27">
         <v>13</v>
       </c>
-      <c r="M37" s="29">
+      <c r="M37" s="27">
         <v>7</v>
       </c>
-      <c r="N37" s="29">
+      <c r="N37" s="27">
         <v>1</v>
       </c>
-      <c r="O37" s="29">
-        <v>4</v>
-      </c>
-      <c r="P37" s="29">
+      <c r="O37" s="27">
+        <v>4</v>
+      </c>
+      <c r="P37" s="27">
         <v>7</v>
       </c>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29">
-        <v>4</v>
-      </c>
-      <c r="S37" s="29">
-        <v>4</v>
-      </c>
-      <c r="T37" s="29">
-        <v>4</v>
-      </c>
-      <c r="U37" s="29">
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27">
+        <v>4</v>
+      </c>
+      <c r="S37" s="27">
+        <v>4</v>
+      </c>
+      <c r="T37" s="27">
+        <v>4</v>
+      </c>
+      <c r="U37" s="27">
         <v>6</v>
       </c>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="13">
+      <c r="C38" s="11">
         <f>SUM(C37)</f>
         <v>73</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="11">
         <f t="shared" ref="D38:W38" si="6">SUM(D37)</f>
         <v>6</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="11">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="11">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="11">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="11">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="11">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M38" s="11">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N38" s="11">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="O38" s="13">
+      <c r="O38" s="11">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="P38" s="13">
+      <c r="P38" s="11">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q38" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R38" s="13">
+      <c r="R38" s="11">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="S38" s="13">
+      <c r="S38" s="11">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="T38" s="13">
+      <c r="T38" s="11">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="U38" s="13">
+      <c r="U38" s="11">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V38" s="13">
+      <c r="V38" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W38" s="13">
+      <c r="W38" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="12">
+      <c r="C39" s="10">
         <f>SUM(C4+C12+C20+C28+C36+C38)</f>
         <v>1076</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="10">
         <f t="shared" ref="D39:W39" si="7">SUM(D4+D12+D20+D28+D36+D38)</f>
         <v>35</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="10">
         <f t="shared" si="7"/>
         <v>54</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="10">
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="10">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="10">
         <f t="shared" si="7"/>
         <v>70</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="10">
         <f t="shared" si="7"/>
         <v>75</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="10">
         <f t="shared" si="7"/>
         <v>103</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K39" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L39" s="10">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M39" s="10">
         <f t="shared" si="7"/>
         <v>79</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N39" s="10">
         <f t="shared" si="7"/>
         <v>51</v>
       </c>
-      <c r="O39" s="12">
+      <c r="O39" s="10">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="P39" s="12">
+      <c r="P39" s="10">
         <f t="shared" si="7"/>
         <v>94</v>
       </c>
-      <c r="Q39" s="12">
+      <c r="Q39" s="10">
         <f t="shared" si="7"/>
         <v>61</v>
       </c>
-      <c r="R39" s="12">
+      <c r="R39" s="10">
         <f t="shared" si="7"/>
         <v>79</v>
       </c>
-      <c r="S39" s="12">
+      <c r="S39" s="10">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="T39" s="12">
+      <c r="T39" s="10">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="U39" s="12">
+      <c r="U39" s="10">
         <f t="shared" si="7"/>
         <v>69</v>
       </c>
-      <c r="V39" s="12">
+      <c r="V39" s="10">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="W39" s="12">
+      <c r="W39" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2965,7 +2970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="E4:E7"/>
   <sheetViews>
@@ -2973,25 +2978,25 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:5" ht="25.5">
+    <row r="4" spans="5:5" ht="24.6" x14ac:dyDescent="0.3">
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="5:5" ht="25.5">
+    <row r="5" spans="5:5" ht="24.6" x14ac:dyDescent="0.3">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="5:5" ht="25.5">
+    <row r="6" spans="5:5" ht="24.6" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="5:5" ht="25.5">
+    <row r="7" spans="5:5" ht="24.6" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
